--- a/SouthDakota/WaterAllocation/SD_Allocation Schema Mapping to WaDE.xlsx
+++ b/SouthDakota/WaterAllocation/SD_Allocation Schema Mapping to WaDE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\SouthDakota\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1232382D-4021-4FE8-ABCB-1C11F54428F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7484B08C-F04A-4E20-8D4D-804A92E2004C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="312">
   <si>
     <t>Name</t>
   </si>
@@ -954,9 +954,6 @@
     <t>use custom ID</t>
   </si>
   <si>
-    <t>"﻿https://danr.sd.gov/wrimage/wrinfo/wr_div3/" + PERMIT_NO + ".pdf"</t>
-  </si>
-  <si>
     <t>03/29/2023</t>
   </si>
   <si>
@@ -973,6 +970,12 @@
   </si>
   <si>
     <t>create custom ID</t>
+  </si>
+  <si>
+    <t>LINK</t>
+  </si>
+  <si>
+    <t>"﻿https://danr.sd.gov/wrimage/wrinfo/" + wr div &amp; permit number from Link</t>
   </si>
 </sst>
 </file>
@@ -2508,7 +2511,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" s="93" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -2521,7 +2524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2606DDD-D901-4365-BB8D-3E6142C84460}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -2920,7 +2923,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3173,7 +3176,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="91" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F9" s="43" t="s">
         <v>38</v>
@@ -3332,7 +3335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8BA2FE-2555-4166-A4DF-0203EE1C77D7}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -3998,7 +4001,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>38</v>
@@ -4758,8 +4761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5460,7 +5463,7 @@
         <v>260</v>
       </c>
       <c r="G23" s="45" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H23" s="83" t="s">
         <v>38</v>
@@ -5748,7 +5751,7 @@
         <v>38</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H32" s="83" t="s">
         <v>38</v>
@@ -5902,7 +5905,7 @@
         <v>38</v>
       </c>
       <c r="E37" s="69" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F37" s="24" t="s">
         <v>38</v>
@@ -6246,13 +6249,13 @@
         <v>38</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="F48" s="24" t="s">
         <v>38</v>
       </c>
       <c r="G48" s="32" t="s">
-        <v>38</v>
+        <v>310</v>
       </c>
       <c r="H48" s="83" t="s">
         <v>38</v>
